--- a/hiqu/HR/Performance Evaluation/December 2024/QA/Hamza Nouman.xlsx
+++ b/hiqu/HR/Performance Evaluation/December 2024/QA/Hamza Nouman.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\December 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B626565E-33DD-4A9A-AD19-9B6912C3670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92C44E0-C39B-45C8-B4F1-3A3EBF6C5EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
     <sheet name="Quarterly Evaluations" sheetId="3" r:id="rId2"/>
     <sheet name="Consolidated" sheetId="5" r:id="rId3"/>
-    <sheet name="November 2024" sheetId="6" r:id="rId4"/>
-    <sheet name="October 2024" sheetId="4" r:id="rId5"/>
-    <sheet name="September 24" sheetId="1" r:id="rId6"/>
+    <sheet name="December 2024" sheetId="7" r:id="rId4"/>
+    <sheet name="November 2024" sheetId="6" r:id="rId5"/>
+    <sheet name="October 2024" sheetId="4" r:id="rId6"/>
+    <sheet name="September 24" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="139">
   <si>
     <t>Employee Name</t>
   </si>
@@ -437,6 +438,27 @@
   </si>
   <si>
     <t>Document</t>
+  </si>
+  <si>
+    <t>Period: December 2024</t>
+  </si>
+  <si>
+    <t>EDI file updating and upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APWORKS 2024.2 PHASE 5          </t>
+  </si>
+  <si>
+    <t>Billing by Media Type</t>
+  </si>
+  <si>
+    <t>Enhancement for Visual Indicators and Flighting Details in Place</t>
+  </si>
+  <si>
+    <t>AdTech Fee commission</t>
+  </si>
+  <si>
+    <t>Media Plan: Import/Export Flighting</t>
   </si>
 </sst>
 </file>
@@ -3102,7 +3124,7 @@
       </c>
       <c r="C10" s="74">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.3671232876712329</v>
+        <v>1.4986301369863013</v>
       </c>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
@@ -3401,7 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ED319C-EE40-47F2-9EE8-C614D72A52FC}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -4033,6 +4055,48 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8490B49A-25E5-4D9D-AB8E-DC965E295035}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31026241-1830-4946-8571-18E38DB82892}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D22">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6D1568FB-9C52-4078-A831-5D39A3FCFA74}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D31">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5122BCE-B59F-4D0B-9192-8F7902D28A93}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4121,48 +4185,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31026241-1830-4946-8571-18E38DB82892}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6D1568FB-9C52-4078-A831-5D39A3FCFA74}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D31">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A5122BCE-B59F-4D0B-9192-8F7902D28A93}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -4212,6 +4234,51 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C24:C31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31026241-1830-4946-8571-18E38DB82892}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6D1568FB-9C52-4078-A831-5D39A3FCFA74}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5122BCE-B59F-4D0B-9192-8F7902D28A93}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B1470E73-8BB0-457A-977B-F1E0CE9F5488}">
@@ -4303,51 +4370,6 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31026241-1830-4946-8571-18E38DB82892}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6D1568FB-9C52-4078-A831-5D39A3FCFA74}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16:D22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A5122BCE-B59F-4D0B-9192-8F7902D28A93}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="5" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D24:D31</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4356,10 +4378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9DD28-2AA3-40BE-9B44-742BA0E60626}">
-  <dimension ref="B2:W43"/>
+  <dimension ref="B2:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,7 +4575,7 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="30"/>
@@ -4566,57 +4588,35 @@
       <c r="K8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="70">
-        <f t="shared" ref="O8:O40" si="0">IF(M8&gt;0, M8-N8,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O8" s="70"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="72">
-        <f t="shared" ref="Q8:Q40" si="1">D8+E8+F8+G8+H8+I8+J8+K8+N8</f>
-        <v>0</v>
-      </c>
+      <c r="Q8" s="72"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="69">
-        <v>1</v>
-      </c>
+      <c r="T8" s="69"/>
       <c r="U8" s="69"/>
       <c r="V8" s="69"/>
-      <c r="W8" s="71">
-        <f>SUM(T8:V8)</f>
-        <v>1</v>
-      </c>
+      <c r="W8" s="71"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="30">
+        <v>14</v>
+      </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="30">
-        <v>42</v>
-      </c>
+      <c r="I9" s="30"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="M9" s="2">
-        <v>8</v>
-      </c>
-      <c r="N9" s="47">
-        <f>63.5+35</f>
-        <v>98.5</v>
-      </c>
-      <c r="O9" s="70">
-        <f t="shared" si="0"/>
-        <v>-90.5</v>
-      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="70"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="72">
-        <f t="shared" si="1"/>
-        <v>140.5</v>
-      </c>
+      <c r="Q9" s="72"/>
       <c r="S9" s="15"/>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
@@ -4624,81 +4624,78 @@
       <c r="W9" s="71"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30">
-        <v>6</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="M10" s="2">
-        <v>40</v>
-      </c>
-      <c r="N10" s="47">
-        <f>10+75.5</f>
-        <v>85.5</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="70">
-        <f t="shared" si="0"/>
-        <v>-45.5</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="72">
-        <f t="shared" si="1"/>
-        <v>91.5</v>
-      </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="71"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+        <f>IF(M10&gt;0, M10-N10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="65"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
       <c r="C11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
-        <v>4</v>
+      <c r="N11" s="69">
+        <v>13</v>
       </c>
       <c r="O11" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="6"/>
+        <f>IF(M11&gt;0, M11-N11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="50"/>
       <c r="Q11" s="72">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S11" s="15"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
+        <f>D11+E11+F11+G11+H11+I11+J11+K11+N11</f>
+        <v>13</v>
+      </c>
+      <c r="R11" s="48"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="69">
+        <v>0</v>
+      </c>
+      <c r="U11" s="69">
+        <v>0</v>
+      </c>
+      <c r="V11" s="69">
+        <v>0</v>
+      </c>
       <c r="W11" s="71">
         <f>SUM(T11:V11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -4708,20 +4705,18 @@
       <c r="I12" s="30"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="M12" s="2">
-        <v>20</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="O12" s="70">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>IF(M12&gt;0, M12-N12,0)</f>
+        <v>0</v>
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="72">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>D12+E12+F12+G12+H12+I12+J12+K12+N12</f>
+        <v>22</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="69"/>
@@ -4730,31 +4725,23 @@
       <c r="W12" s="71"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="30">
-        <v>1</v>
-      </c>
+      <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O13" s="70"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="72">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="Q13" s="72"/>
       <c r="S13" s="15"/>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
@@ -4762,29 +4749,25 @@
       <c r="W13" s="71"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="30">
+        <v>51</v>
+      </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O14" s="70"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="Q14" s="72"/>
       <c r="S14" s="15"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
@@ -4792,10 +4775,10 @@
       <c r="W14" s="71"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="32"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -4804,50 +4787,58 @@
       <c r="I15" s="30"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="M15" s="2">
-        <v>16</v>
-      </c>
-      <c r="N15" s="2">
-        <v>5</v>
-      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="70">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" ref="O15:O50" si="0">IF(M15&gt;0, M15-N15,0)</f>
+        <v>0</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="72">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" ref="Q15:Q50" si="1">D15+E15+F15+G15+H15+I15+J15+K15+N15</f>
+        <v>0</v>
       </c>
       <c r="S15" s="15"/>
-      <c r="T15" s="69"/>
+      <c r="T15" s="69">
+        <v>1</v>
+      </c>
       <c r="U15" s="69"/>
       <c r="V15" s="69"/>
-      <c r="W15" s="71"/>
+      <c r="W15" s="71">
+        <f>SUM(T15:V15)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>42</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="2">
+        <v>8</v>
+      </c>
+      <c r="N16" s="47">
+        <f>63.5+35</f>
+        <v>98.5</v>
+      </c>
       <c r="O16" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-90.5</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>140.5</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="69"/>
@@ -4856,30 +4847,35 @@
       <c r="W16" s="71"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="30">
-        <v>8</v>
-      </c>
+      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="30">
+        <v>6</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="2">
+        <v>40</v>
+      </c>
+      <c r="N17" s="47">
+        <f>10+75.5</f>
+        <v>85.5</v>
+      </c>
       <c r="O17" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-45.5</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="72">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>91.5</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="69"/>
@@ -4890,7 +4886,7 @@
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -4902,7 +4898,7 @@
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
-        <v>50.5</v>
+        <v>9</v>
       </c>
       <c r="O18" s="70">
         <f t="shared" si="0"/>
@@ -4911,19 +4907,22 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="72">
         <f t="shared" si="1"/>
-        <v>50.5</v>
+        <v>9</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="69"/>
       <c r="U18" s="69"/>
       <c r="V18" s="69"/>
-      <c r="W18" s="71"/>
+      <c r="W18" s="71">
+        <f>SUM(T18:V18)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -4932,16 +4931,20 @@
       <c r="I19" s="30"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="2">
+        <v>20</v>
+      </c>
+      <c r="N19" s="2">
+        <v>3</v>
+      </c>
       <c r="O19" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S19" s="15"/>
       <c r="T19" s="69"/>
@@ -4952,30 +4955,28 @@
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="30">
+        <v>1</v>
+      </c>
       <c r="I20" s="30"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="M20" s="2">
-        <v>4</v>
-      </c>
-      <c r="N20" s="2">
-        <v>5</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="70">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="72">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="69"/>
@@ -4984,17 +4985,15 @@
       <c r="W20" s="71"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="30">
-        <v>4</v>
-      </c>
+      <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -5007,7 +5006,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="72">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="69"/>
@@ -5016,10 +5015,10 @@
       <c r="W21" s="71"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -5029,16 +5028,12 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N22" s="2">
+        <v>7</v>
+      </c>
+      <c r="O22" s="70"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="Q22" s="72"/>
       <c r="S22" s="15"/>
       <c r="T22" s="69"/>
       <c r="U22" s="69"/>
@@ -5048,7 +5043,7 @@
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -5058,18 +5053,20 @@
       <c r="I23" s="30"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2">
+        <v>16</v>
+      </c>
       <c r="N23" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O23" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="72">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="69"/>
@@ -5080,7 +5077,7 @@
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -5092,16 +5089,13 @@
       <c r="K24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O24" s="70"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="69"/>
@@ -5111,7 +5105,7 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="30"/>
@@ -5142,11 +5136,11 @@
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -5163,7 +5157,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="72">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="69"/>
@@ -5174,12 +5168,10 @@
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D27" s="30"/>
-      <c r="E27" s="30">
-        <v>37</v>
-      </c>
+      <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -5187,7 +5179,9 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2">
+        <v>50.5</v>
+      </c>
       <c r="O27" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5195,7 +5189,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="72">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>50.5</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="69"/>
@@ -5204,19 +5198,17 @@
       <c r="W27" s="71"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="2">
-        <v>14</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5227,7 +5219,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="72">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="69"/>
@@ -5236,90 +5228,83 @@
       <c r="W28" s="71"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="M29" s="2">
+        <v>4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5</v>
+      </c>
       <c r="O29" s="70">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="65"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="7"/>
-    </row>
-    <row r="30" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46"/>
+        <v>-1</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="72">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S29" s="15"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="71"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
+        <v>135</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="69">
-        <v>13</v>
-      </c>
-      <c r="O30" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="72">
-        <f>D30+E30+F30+G30+H30+I30+J30+K30+N30</f>
-        <v>13</v>
-      </c>
-      <c r="R30" s="48"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="69">
-        <v>0</v>
-      </c>
-      <c r="U30" s="69">
-        <v>0</v>
-      </c>
-      <c r="V30" s="69">
-        <v>0</v>
-      </c>
-      <c r="W30" s="71">
-        <f>SUM(T30:V30)</f>
-        <v>0</v>
-      </c>
+      <c r="N30" s="2">
+        <v>14</v>
+      </c>
+      <c r="O30" s="70"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="72"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="71"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="32"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="H31" s="30">
+        <v>14.5</v>
+      </c>
       <c r="I31" s="30"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="O31" s="70">
         <f t="shared" si="0"/>
@@ -5327,8 +5312,8 @@
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="72">
-        <f>D31+E31+F31+G31+H31+I31+J31+K31+N31</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>17.5</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="69"/>
@@ -5337,10 +5322,10 @@
       <c r="W31" s="71"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -5350,16 +5335,15 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="2">
+        <v>17</v>
+      </c>
       <c r="O32" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P32" s="6"/>
-      <c r="Q32" s="72">
-        <f>D32+E32+F32+G32+H32+I32+J32+K32+N32</f>
-        <v>0</v>
-      </c>
+      <c r="Q32" s="72"/>
       <c r="S32" s="15"/>
       <c r="T32" s="69"/>
       <c r="U32" s="69"/>
@@ -5367,31 +5351,28 @@
       <c r="W32" s="71"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="30">
-        <v>47</v>
-      </c>
+      <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" s="2">
+        <v>32</v>
+      </c>
       <c r="O33" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="72">
-        <f>D33+E33+F33+G33+H33+I33+J33+K33+N33</f>
-        <v>47</v>
-      </c>
+      <c r="Q33" s="72"/>
       <c r="S33" s="15"/>
       <c r="T33" s="69"/>
       <c r="U33" s="69"/>
@@ -5400,7 +5381,9 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -5410,16 +5393,15 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="2">
+        <v>14</v>
+      </c>
       <c r="O34" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="Q34" s="72"/>
       <c r="S34" s="15"/>
       <c r="T34" s="69"/>
       <c r="U34" s="69"/>
@@ -5427,7 +5409,9 @@
       <c r="W34" s="71"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
@@ -5456,7 +5440,9 @@
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -5466,7 +5452,9 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" s="2">
+        <v>4</v>
+      </c>
       <c r="O36" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5474,7 +5462,7 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="69"/>
@@ -5484,7 +5472,9 @@
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -5494,7 +5484,9 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
       <c r="O37" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5502,7 +5494,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="69"/>
@@ -5511,7 +5503,9 @@
       <c r="W37" s="71"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
@@ -5540,9 +5534,13 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="E39" s="30">
+        <v>4</v>
+      </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
@@ -5558,7 +5556,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="69"/>
@@ -5568,13 +5566,17 @@
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30">
+        <v>47</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="M40" s="2"/>
@@ -5583,88 +5585,378 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="P40" s="6"/>
       <c r="Q40" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="S40" s="15"/>
       <c r="T40" s="69"/>
       <c r="U40" s="69"/>
       <c r="V40" s="69"/>
       <c r="W40" s="71"/>
     </row>
-    <row r="42" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="2">
+        <v>14</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="72">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S41" s="15"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="71"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="72">
+        <f>D42+E42+F42+G42+H42+I42+J42+K42+N42</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="15"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="71"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="32"/>
+      <c r="C43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30">
+        <v>47</v>
+      </c>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="72">
+        <f>D43+E43+F43+G43+H43+I43+J43+K43+N43</f>
+        <v>47</v>
+      </c>
+      <c r="S43" s="15"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="71"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="15"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="71"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="15"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="71"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="15"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="71"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="15"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="71"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="15"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="71"/>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="15"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
+      <c r="V49" s="69"/>
+      <c r="W49" s="71"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="7"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="69"/>
+      <c r="W50" s="71"/>
+    </row>
+    <row r="52" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17">
-        <f>SUM(D8:D40)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="17">
-        <f>SUM(E8:E40)</f>
-        <v>49</v>
-      </c>
-      <c r="F42" s="17">
-        <f>SUM(F8:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="17">
-        <f>SUM(G8:G40)</f>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17">
+        <f>SUM(D15:D50)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <f>SUM(E15:E50)</f>
+        <v>59</v>
+      </c>
+      <c r="F52" s="17">
+        <f>SUM(F15:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="17">
+        <f>SUM(G15:G50)</f>
         <v>47</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17">
-        <f>SUM(I8:I40)</f>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17">
+        <f>SUM(I15:I50)</f>
         <v>48</v>
       </c>
-      <c r="J42" s="17">
-        <f>SUM(J8:J40)</f>
+      <c r="J52" s="17">
+        <f>SUM(J15:J50)</f>
         <v>14</v>
       </c>
-      <c r="K42" s="17">
-        <f>SUM(K8:K40)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17">
-        <f>SUM(M8:M41)</f>
+      <c r="K52" s="17">
+        <f>SUM(K15:K50)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17">
+        <f>SUM(M15:M51)</f>
         <v>88</v>
       </c>
-      <c r="N42" s="17">
-        <f>SUM(N8:N41)</f>
-        <v>291.5</v>
-      </c>
-      <c r="O42" s="17">
-        <f>SUM(O8:O41)</f>
-        <v>-109</v>
-      </c>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="66">
-        <f>SUM(Q8:Q41)</f>
-        <v>454.5</v>
-      </c>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17">
-        <f>SUM(T8:T41)</f>
+      <c r="N52" s="17">
+        <f>SUM(N15:N51)</f>
+        <v>361.5</v>
+      </c>
+      <c r="O52" s="17">
+        <f>SUM(O15:O51)</f>
+        <v>-119</v>
+      </c>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="66">
+        <f>SUM(Q15:Q51)</f>
+        <v>461</v>
+      </c>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17">
+        <f>SUM(T15:T51)</f>
         <v>1</v>
       </c>
-      <c r="U42" s="17">
-        <f>SUM(U8:U41)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="17">
-        <f>SUM(V8:V41)</f>
-        <v>0</v>
-      </c>
-      <c r="W42" s="17">
-        <f>SUM(W8:W41)</f>
+      <c r="U52" s="17">
+        <f>SUM(U15:U51)</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="17">
+        <f>SUM(V15:V51)</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="17">
+        <f>SUM(W15:W51)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:W2"/>
@@ -5676,7 +5968,7 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="T6:W6"/>
   </mergeCells>
-  <conditionalFormatting sqref="T8:T28 T30:T39">
+  <conditionalFormatting sqref="T8:T9 T11:T49">
     <cfRule type="expression" priority="1">
       <formula>T8/$W8</formula>
     </cfRule>
@@ -5686,11 +5978,985 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB249F11-A49C-47EB-AD7E-5D971996DE39}">
+  <dimension ref="B2:W34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="67" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="5" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="5"/>
+    <col min="23" max="23" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
+      <c r="Q6" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="90"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="M7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="56"/>
+      <c r="Q8" s="65"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30">
+        <v>8</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="68">
+        <f>M9-N9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="65">
+        <f>D9+E9+F9+G9+H9+I9+J9+K9+N9</f>
+        <v>8</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <f>SUM(T9:V9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="68">
+        <f>M10-N10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="65">
+        <f t="shared" ref="Q10:Q31" si="0">D10+E10+F10+G10+H10+I10+J10+K10+N10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30">
+        <v>4</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="65">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="7">
+        <f>SUM(T11:V11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="58"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="65">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <v>7</v>
+      </c>
+      <c r="O15" s="58"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="65">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>10</v>
+      </c>
+      <c r="O16" s="58"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="65">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>14</v>
+      </c>
+      <c r="O17" s="58"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="65">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="15"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="65">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
+        <v>14</v>
+      </c>
+      <c r="O21" s="58"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="65">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S21" s="15"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30">
+        <v>10.5</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
+        <v>3</v>
+      </c>
+      <c r="O22" s="58"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="65">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="S22" s="15"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
+        <v>17</v>
+      </c>
+      <c r="O23" s="58"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="65">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S23" s="15"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <v>32</v>
+      </c>
+      <c r="O24" s="58"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="65">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="S24" s="15"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="7">
+        <f>SUM(T24:V24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
+        <v>14</v>
+      </c>
+      <c r="O25" s="58"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="65">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S25" s="15"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="57"/>
+      <c r="Q26" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30">
+        <v>10</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="65">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S27" s="15"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="7"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="15"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="15"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="7">
+        <f>SUM(T29:V29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="15"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="57"/>
+      <c r="Q31" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="7"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="7"/>
+    </row>
+    <row r="33" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17">
+        <f>SUM(D8:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" ref="E33:K33" si="1">SUM(E8:E31)</f>
+        <v>18</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17">
+        <f>SUM(M8:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="17">
+        <f>SUM(N8:N32)</f>
+        <v>116</v>
+      </c>
+      <c r="O33" s="59">
+        <f t="shared" ref="O33" si="2">IF(M33=0,0,(N33-M33)/M33)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="66">
+        <f>SUM(Q8:Q32)</f>
+        <v>158.5</v>
+      </c>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17">
+        <f>SUM(T8:T32)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="17">
+        <f>SUM(U8:U32)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="17">
+        <f>SUM(V8:V32)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="17">
+        <f>SUM(W8:W32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="T6:W6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="T9:T25 T27:T30">
+    <cfRule type="expression" priority="1">
+      <formula>T9/$W9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBA6AF3-4924-4FA1-B613-619469C9146F}">
   <dimension ref="B2:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6485,7 +7751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E492B-594A-42A4-B532-C17A291B1C78}">
   <dimension ref="B2:V18"/>
   <sheetViews>
@@ -7003,7 +8269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:V29"/>
   <sheetViews>
